--- a/2018_2019_BoxPlus_Minus.xlsx
+++ b/2018_2019_BoxPlus_Minus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adams\OneDrive - University of Waterloo\Github\Sports-Analytics-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB95A74C-89DB-4688-9207-FEFBE218C366}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079A5D4C-98C2-4301-B934-2B96F9E9668D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15200" windowHeight="6940" xr2:uid="{A0139223-003C-423B-8ACE-60B30DDB8C24}"/>
   </bookViews>
@@ -2241,7 +2241,7 @@
   <dimension ref="A1:D617"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:J4"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
